--- a/REGULAR/OJT/BAYBAY MARCELO.xlsx
+++ b/REGULAR/OJT/BAYBAY MARCELO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB50CC4-2706-44D5-9C15-09196635162F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="131">
   <si>
     <t>PERIOD</t>
   </si>
@@ -426,11 +425,14 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>12/22/26-29/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1293,7 +1295,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1336,7 +1338,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1400,7 +1402,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1460,7 +1462,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1526,7 +1528,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1589,7 +1591,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1687,7 +1689,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1746,7 +1748,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1811,7 +1813,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1854,7 +1856,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1929,7 +1931,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2115,7 +2117,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2181,7 +2183,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2239,7 +2241,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2305,7 +2307,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2361,7 +2363,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2436,7 +2438,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2479,7 +2481,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2545,7 +2547,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2601,7 +2603,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2699,7 +2701,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2762,7 +2764,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2811,7 +2813,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2828,25 +2830,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K471" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K471" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2858,13 +2860,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2873,14 +2875,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3184,7 +3186,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3194,7 +3196,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3202,34 +3204,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K471"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1884" topLeftCell="A340" activePane="bottomLeft"/>
+      <pane ySplit="1890" topLeftCell="A373" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="D359" sqref="D359"/>
+      <selection pane="bottomLeft" activeCell="E391" sqref="E391"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3250,7 +3252,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3268,7 +3270,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3286,7 +3288,7 @@
       <c r="J4" s="57"/>
       <c r="K4" s="58"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3294,7 +3296,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3307,7 +3309,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -3324,7 +3326,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3359,7 +3361,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3368,7 +3370,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>186.93899999999996</v>
+        <v>189.43899999999996</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3378,12 +3380,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>293.33299999999997</v>
+        <v>300.83299999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -3405,7 +3407,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>35233</v>
       </c>
@@ -3425,7 +3427,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>35247</v>
       </c>
@@ -3445,7 +3447,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>35278</v>
       </c>
@@ -3465,7 +3467,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>35309</v>
       </c>
@@ -3485,7 +3487,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>35339</v>
       </c>
@@ -3505,7 +3507,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>35370</v>
       </c>
@@ -3525,7 +3527,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>35400</v>
       </c>
@@ -3545,7 +3547,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
         <v>44</v>
       </c>
@@ -3563,7 +3565,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>35431</v>
       </c>
@@ -3583,7 +3585,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <f>EDATE(A19,1)</f>
         <v>35462</v>
@@ -3604,7 +3606,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <f t="shared" ref="A21:A30" si="0">EDATE(A20,1)</f>
         <v>35490</v>
@@ -3625,7 +3627,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <f t="shared" si="0"/>
         <v>35521</v>
@@ -3646,7 +3648,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <f t="shared" si="0"/>
         <v>35551</v>
@@ -3667,7 +3669,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <f t="shared" si="0"/>
         <v>35582</v>
@@ -3694,7 +3696,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <f t="shared" si="0"/>
         <v>35612</v>
@@ -3715,7 +3717,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <f t="shared" si="0"/>
         <v>35643</v>
@@ -3736,7 +3738,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <f t="shared" si="0"/>
         <v>35674</v>
@@ -3757,7 +3759,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <f t="shared" si="0"/>
         <v>35704</v>
@@ -3778,7 +3780,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <f>EDATE(A28,1)</f>
         <v>35735</v>
@@ -3799,7 +3801,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <f t="shared" si="0"/>
         <v>35765</v>
@@ -3820,7 +3822,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="48" t="s">
         <v>47</v>
       </c>
@@ -3838,7 +3840,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>35796</v>
       </c>
@@ -3858,7 +3860,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <f>EDATE(A32,1)</f>
         <v>35827</v>
@@ -3879,7 +3881,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <f t="shared" ref="A34:A44" si="1">EDATE(A33,1)</f>
         <v>35855</v>
@@ -3900,7 +3902,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <f t="shared" si="1"/>
         <v>35886</v>
@@ -3921,7 +3923,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <f t="shared" si="1"/>
         <v>35916</v>
@@ -3942,7 +3944,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <f t="shared" si="1"/>
         <v>35947</v>
@@ -3969,7 +3971,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <f t="shared" si="1"/>
         <v>35977</v>
@@ -3990,7 +3992,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <f t="shared" si="1"/>
         <v>36008</v>
@@ -4011,7 +4013,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>50</v>
@@ -4031,7 +4033,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>48</v>
@@ -4053,7 +4055,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <f>EDATE(A39,1)</f>
         <v>36039</v>
@@ -4074,7 +4076,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <f t="shared" si="1"/>
         <v>36069</v>
@@ -4101,7 +4103,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <f t="shared" si="1"/>
         <v>36100</v>
@@ -4122,7 +4124,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <f>EDATE(A44,1)</f>
         <v>36130</v>
@@ -4143,7 +4145,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="48" t="s">
         <v>54</v>
       </c>
@@ -4161,7 +4163,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>36161</v>
       </c>
@@ -4185,7 +4187,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13">
@@ -4203,7 +4205,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <f>EDATE(A47,1)</f>
         <v>36192</v>
@@ -4224,7 +4226,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <f t="shared" ref="A50:A60" si="2">EDATE(A49,1)</f>
         <v>36220</v>
@@ -4245,7 +4247,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <f t="shared" si="2"/>
         <v>36251</v>
@@ -4266,7 +4268,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <f t="shared" si="2"/>
         <v>36281</v>
@@ -4291,7 +4293,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13">
@@ -4309,7 +4311,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <f>EDATE(A52,1)</f>
         <v>36312</v>
@@ -4330,7 +4332,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <f t="shared" si="2"/>
         <v>36342</v>
@@ -4351,7 +4353,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <f t="shared" si="2"/>
         <v>36373</v>
@@ -4376,7 +4378,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13">
@@ -4394,7 +4396,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <f>EDATE(A56,1)</f>
         <v>36404</v>
@@ -4415,7 +4417,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <f t="shared" si="2"/>
         <v>36434</v>
@@ -4436,7 +4438,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <f t="shared" si="2"/>
         <v>36465</v>
@@ -4461,7 +4463,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13">
@@ -4479,7 +4481,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <f>EDATE(A60,1)</f>
         <v>36495</v>
@@ -4500,7 +4502,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="48" t="s">
         <v>60</v>
       </c>
@@ -4518,7 +4520,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>36526</v>
       </c>
@@ -4540,7 +4542,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13">
@@ -4558,7 +4560,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <f>EDATE(A64,1)</f>
         <v>36557</v>
@@ -4579,7 +4581,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <f t="shared" ref="A67:A76" si="3">EDATE(A66,1)</f>
         <v>36586</v>
@@ -4600,7 +4602,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <f t="shared" si="3"/>
         <v>36617</v>
@@ -4621,7 +4623,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <f t="shared" si="3"/>
         <v>36647</v>
@@ -4642,7 +4644,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <f t="shared" si="3"/>
         <v>36678</v>
@@ -4663,7 +4665,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <f t="shared" si="3"/>
         <v>36708</v>
@@ -4684,7 +4686,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <f t="shared" si="3"/>
         <v>36739</v>
@@ -4705,7 +4707,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <f t="shared" si="3"/>
         <v>36770</v>
@@ -4726,7 +4728,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <f t="shared" si="3"/>
         <v>36800</v>
@@ -4747,7 +4749,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <f t="shared" si="3"/>
         <v>36831</v>
@@ -4768,7 +4770,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <f t="shared" si="3"/>
         <v>36861</v>
@@ -4793,7 +4795,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="48" t="s">
         <v>63</v>
       </c>
@@ -4811,7 +4813,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>36892</v>
       </c>
@@ -4831,7 +4833,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <f>EDATE(A78,1)</f>
         <v>36923</v>
@@ -4856,7 +4858,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13">
@@ -4874,7 +4876,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <f>EDATE(A79,1)</f>
         <v>36951</v>
@@ -4895,7 +4897,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <f t="shared" ref="A82:A91" si="4">EDATE(A81,1)</f>
         <v>36982</v>
@@ -4916,7 +4918,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <f t="shared" si="4"/>
         <v>37012</v>
@@ -4937,7 +4939,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <f t="shared" si="4"/>
         <v>37043</v>
@@ -4958,7 +4960,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <f t="shared" si="4"/>
         <v>37073</v>
@@ -4979,7 +4981,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <f t="shared" si="4"/>
         <v>37104</v>
@@ -5004,7 +5006,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13">
@@ -5022,7 +5024,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <f>EDATE(A86,1)</f>
         <v>37135</v>
@@ -5043,7 +5045,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <f t="shared" si="4"/>
         <v>37165</v>
@@ -5064,7 +5066,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <f t="shared" si="4"/>
         <v>37196</v>
@@ -5085,7 +5087,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <f t="shared" si="4"/>
         <v>37226</v>
@@ -5106,7 +5108,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="48" t="s">
         <v>67</v>
       </c>
@@ -5124,7 +5126,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>37257</v>
       </c>
@@ -5144,7 +5146,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <f>EDATE(A93,1)</f>
         <v>37288</v>
@@ -5169,7 +5171,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13">
@@ -5187,7 +5189,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <f>EDATE(A94,1)</f>
         <v>37316</v>
@@ -5208,7 +5210,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <f t="shared" ref="A97:A105" si="5">EDATE(A96,1)</f>
         <v>37347</v>
@@ -5229,7 +5231,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <f t="shared" si="5"/>
         <v>37377</v>
@@ -5250,7 +5252,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <f t="shared" si="5"/>
         <v>37408</v>
@@ -5271,7 +5273,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <f t="shared" si="5"/>
         <v>37438</v>
@@ -5292,7 +5294,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <f t="shared" si="5"/>
         <v>37469</v>
@@ -5313,7 +5315,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <f t="shared" si="5"/>
         <v>37500</v>
@@ -5334,7 +5336,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <f>EDATE(A102,1)</f>
         <v>37530</v>
@@ -5355,7 +5357,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <f t="shared" si="5"/>
         <v>37561</v>
@@ -5376,7 +5378,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <f t="shared" si="5"/>
         <v>37591</v>
@@ -5401,7 +5403,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="48" t="s">
         <v>70</v>
       </c>
@@ -5419,7 +5421,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>37622</v>
       </c>
@@ -5443,7 +5445,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13">
@@ -5461,7 +5463,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <f>EDATE(A107,1)</f>
         <v>37653</v>
@@ -5482,7 +5484,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <f t="shared" ref="A110:A120" si="6">EDATE(A109,1)</f>
         <v>37681</v>
@@ -5503,7 +5505,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <f t="shared" si="6"/>
         <v>37712</v>
@@ -5528,7 +5530,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13">
@@ -5546,7 +5548,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <f>EDATE(A111,1)</f>
         <v>37742</v>
@@ -5567,7 +5569,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <f t="shared" si="6"/>
         <v>37773</v>
@@ -5588,7 +5590,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <f t="shared" si="6"/>
         <v>37803</v>
@@ -5609,7 +5611,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <f t="shared" si="6"/>
         <v>37834</v>
@@ -5630,7 +5632,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <f t="shared" si="6"/>
         <v>37865</v>
@@ -5651,7 +5653,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <f t="shared" si="6"/>
         <v>37895</v>
@@ -5672,7 +5674,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <f t="shared" si="6"/>
         <v>37926</v>
@@ -5693,7 +5695,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <f t="shared" si="6"/>
         <v>37956</v>
@@ -5714,7 +5716,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="48" t="s">
         <v>74</v>
       </c>
@@ -5732,7 +5734,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>37987</v>
       </c>
@@ -5752,7 +5754,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <f>EDATE(A122,1)</f>
         <v>38018</v>
@@ -5773,7 +5775,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <f t="shared" ref="A124:A134" si="7">EDATE(A123,1)</f>
         <v>38047</v>
@@ -5798,7 +5800,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13">
@@ -5816,7 +5818,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <f>EDATE(A124,1)</f>
         <v>38078</v>
@@ -5837,7 +5839,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <f t="shared" si="7"/>
         <v>38108</v>
@@ -5858,7 +5860,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <f t="shared" si="7"/>
         <v>38139</v>
@@ -5879,7 +5881,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <f t="shared" si="7"/>
         <v>38169</v>
@@ -5900,7 +5902,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <f t="shared" si="7"/>
         <v>38200</v>
@@ -5925,7 +5927,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <f t="shared" si="7"/>
         <v>38231</v>
@@ -5946,7 +5948,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <f t="shared" si="7"/>
         <v>38261</v>
@@ -5967,7 +5969,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <f t="shared" si="7"/>
         <v>38292</v>
@@ -5988,7 +5990,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <f t="shared" si="7"/>
         <v>38322</v>
@@ -6009,7 +6011,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="48" t="s">
         <v>77</v>
       </c>
@@ -6027,7 +6029,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>38353</v>
       </c>
@@ -6047,7 +6049,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <f>EDATE(A136,1)</f>
         <v>38384</v>
@@ -6068,7 +6070,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <f t="shared" ref="A138:A147" si="8">EDATE(A137,1)</f>
         <v>38412</v>
@@ -6089,7 +6091,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <f t="shared" si="8"/>
         <v>38443</v>
@@ -6110,7 +6112,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <f t="shared" si="8"/>
         <v>38473</v>
@@ -6131,7 +6133,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <f t="shared" si="8"/>
         <v>38504</v>
@@ -6152,7 +6154,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <f t="shared" si="8"/>
         <v>38534</v>
@@ -6173,7 +6175,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <f t="shared" si="8"/>
         <v>38565</v>
@@ -6194,7 +6196,7 @@
       <c r="J143" s="12"/>
       <c r="K143" s="15"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <f t="shared" si="8"/>
         <v>38596</v>
@@ -6215,7 +6217,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <f t="shared" si="8"/>
         <v>38626</v>
@@ -6236,7 +6238,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <f t="shared" si="8"/>
         <v>38657</v>
@@ -6257,7 +6259,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <f t="shared" si="8"/>
         <v>38687</v>
@@ -6280,7 +6282,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="48" t="s">
         <v>78</v>
       </c>
@@ -6298,7 +6300,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>38718</v>
       </c>
@@ -6318,7 +6320,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <f>EDATE(A149,1)</f>
         <v>38749</v>
@@ -6339,7 +6341,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <f t="shared" ref="A151:A159" si="9">EDATE(A150,1)</f>
         <v>38777</v>
@@ -6360,7 +6362,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <f t="shared" si="9"/>
         <v>38808</v>
@@ -6381,7 +6383,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <f t="shared" si="9"/>
         <v>38838</v>
@@ -6402,7 +6404,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <f t="shared" si="9"/>
         <v>38869</v>
@@ -6423,7 +6425,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <f t="shared" si="9"/>
         <v>38899</v>
@@ -6444,7 +6446,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <f t="shared" si="9"/>
         <v>38930</v>
@@ -6465,7 +6467,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <f t="shared" si="9"/>
         <v>38961</v>
@@ -6486,7 +6488,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <f t="shared" si="9"/>
         <v>38991</v>
@@ -6507,7 +6509,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <f t="shared" si="9"/>
         <v>39022</v>
@@ -6530,7 +6532,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>81</v>
@@ -6552,7 +6554,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40"/>
       <c r="B161" s="20"/>
       <c r="C161" s="13">
@@ -6570,7 +6572,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <f>EDATE(A159,1)</f>
         <v>39052</v>
@@ -6591,7 +6593,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="48" t="s">
         <v>83</v>
       </c>
@@ -6609,7 +6611,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>39083</v>
       </c>
@@ -6629,7 +6631,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <f>EDATE(A164,1)</f>
         <v>39114</v>
@@ -6654,7 +6656,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40"/>
       <c r="B166" s="20"/>
       <c r="C166" s="13">
@@ -6672,7 +6674,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <f>EDATE(A165,1)</f>
         <v>39142</v>
@@ -6693,7 +6695,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <f t="shared" ref="A168:A176" si="10">EDATE(A167,1)</f>
         <v>39173</v>
@@ -6714,7 +6716,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <f t="shared" si="10"/>
         <v>39203</v>
@@ -6735,7 +6737,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <f t="shared" si="10"/>
         <v>39234</v>
@@ -6756,7 +6758,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <f t="shared" si="10"/>
         <v>39264</v>
@@ -6777,7 +6779,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <f t="shared" si="10"/>
         <v>39295</v>
@@ -6798,7 +6800,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <f t="shared" si="10"/>
         <v>39326</v>
@@ -6819,7 +6821,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <f t="shared" si="10"/>
         <v>39356</v>
@@ -6840,7 +6842,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <f t="shared" si="10"/>
         <v>39387</v>
@@ -6861,7 +6863,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <f t="shared" si="10"/>
         <v>39417</v>
@@ -6882,7 +6884,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="48" t="s">
         <v>84</v>
       </c>
@@ -6900,7 +6902,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>39448</v>
       </c>
@@ -6920,7 +6922,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <f>EDATE(A178,1)</f>
         <v>39479</v>
@@ -6941,7 +6943,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <f t="shared" ref="A180:A189" si="11">EDATE(A179,1)</f>
         <v>39508</v>
@@ -6962,7 +6964,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <f t="shared" si="11"/>
         <v>39539</v>
@@ -6983,7 +6985,7 @@
       <c r="J181" s="12"/>
       <c r="K181" s="15"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <f t="shared" si="11"/>
         <v>39569</v>
@@ -7004,7 +7006,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <f t="shared" si="11"/>
         <v>39600</v>
@@ -7025,7 +7027,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <f t="shared" si="11"/>
         <v>39630</v>
@@ -7046,7 +7048,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <f t="shared" si="11"/>
         <v>39661</v>
@@ -7067,7 +7069,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <f t="shared" si="11"/>
         <v>39692</v>
@@ -7088,7 +7090,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <f t="shared" si="11"/>
         <v>39722</v>
@@ -7109,7 +7111,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <f t="shared" si="11"/>
         <v>39753</v>
@@ -7130,7 +7132,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <f t="shared" si="11"/>
         <v>39783</v>
@@ -7155,7 +7157,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="48" t="s">
         <v>87</v>
       </c>
@@ -7173,7 +7175,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>39814</v>
       </c>
@@ -7193,7 +7195,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <f>EDATE(A191,1)</f>
         <v>39845</v>
@@ -7214,7 +7216,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <f t="shared" ref="A193:A203" si="12">EDATE(A192,1)</f>
         <v>39873</v>
@@ -7239,7 +7241,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40"/>
       <c r="B194" s="20"/>
       <c r="C194" s="13">
@@ -7257,7 +7259,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <f>EDATE(A193,1)</f>
         <v>39904</v>
@@ -7278,7 +7280,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <f t="shared" si="12"/>
         <v>39934</v>
@@ -7299,7 +7301,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <f t="shared" si="12"/>
         <v>39965</v>
@@ -7320,7 +7322,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <f t="shared" si="12"/>
         <v>39995</v>
@@ -7341,7 +7343,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <f t="shared" si="12"/>
         <v>40026</v>
@@ -7362,7 +7364,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <f t="shared" si="12"/>
         <v>40057</v>
@@ -7383,7 +7385,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <f t="shared" si="12"/>
         <v>40087</v>
@@ -7404,7 +7406,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <f t="shared" si="12"/>
         <v>40118</v>
@@ -7425,7 +7427,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <f t="shared" si="12"/>
         <v>40148</v>
@@ -7446,7 +7448,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="48" t="s">
         <v>90</v>
       </c>
@@ -7464,7 +7466,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <v>40179</v>
       </c>
@@ -7486,7 +7488,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>93</v>
@@ -7508,7 +7510,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40"/>
       <c r="B207" s="20"/>
       <c r="C207" s="13">
@@ -7526,7 +7528,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <f>EDATE(A205,1)</f>
         <v>40210</v>
@@ -7547,7 +7549,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <f t="shared" ref="A209:A217" si="13">EDATE(A208,1)</f>
         <v>40238</v>
@@ -7568,7 +7570,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <f t="shared" si="13"/>
         <v>40269</v>
@@ -7589,7 +7591,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <f t="shared" si="13"/>
         <v>40299</v>
@@ -7610,7 +7612,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <f>EDATE(A211,1)</f>
         <v>40330</v>
@@ -7631,7 +7633,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <f t="shared" si="13"/>
         <v>40360</v>
@@ -7652,7 +7654,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <f t="shared" si="13"/>
         <v>40391</v>
@@ -7673,7 +7675,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <f t="shared" si="13"/>
         <v>40422</v>
@@ -7694,7 +7696,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <f t="shared" si="13"/>
         <v>40452</v>
@@ -7715,7 +7717,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <f t="shared" si="13"/>
         <v>40483</v>
@@ -7736,7 +7738,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <f>EDATE(A217,1)</f>
         <v>40513</v>
@@ -7757,7 +7759,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="48" t="s">
         <v>91</v>
       </c>
@@ -7775,7 +7777,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="41">
         <v>40544</v>
       </c>
@@ -7795,7 +7797,7 @@
       <c r="J220" s="12"/>
       <c r="K220" s="15"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <f>EDATE(A220,1)</f>
         <v>40575</v>
@@ -7816,7 +7818,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <f t="shared" ref="A222:A232" si="14">EDATE(A221,1)</f>
         <v>40603</v>
@@ -7837,7 +7839,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <f t="shared" si="14"/>
         <v>40634</v>
@@ -7858,7 +7860,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <f t="shared" si="14"/>
         <v>40664</v>
@@ -7883,7 +7885,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20"/>
       <c r="C225" s="42">
@@ -7901,7 +7903,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <f>EDATE(A224,1)</f>
         <v>40695</v>
@@ -7922,7 +7924,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <f t="shared" si="14"/>
         <v>40725</v>
@@ -7943,7 +7945,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <f t="shared" si="14"/>
         <v>40756</v>
@@ -7964,7 +7966,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <f t="shared" si="14"/>
         <v>40787</v>
@@ -7985,7 +7987,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <f t="shared" si="14"/>
         <v>40817</v>
@@ -8006,7 +8008,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <f t="shared" si="14"/>
         <v>40848</v>
@@ -8027,7 +8029,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <f t="shared" si="14"/>
         <v>40878</v>
@@ -8048,7 +8050,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="48" t="s">
         <v>97</v>
       </c>
@@ -8066,7 +8068,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <v>40909</v>
       </c>
@@ -8086,7 +8088,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <f>EDATE(A234,1)</f>
         <v>40940</v>
@@ -8107,7 +8109,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <f t="shared" ref="A236:A244" si="15">EDATE(A235,1)</f>
         <v>40969</v>
@@ -8128,7 +8130,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <f t="shared" si="15"/>
         <v>41000</v>
@@ -8149,7 +8151,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <f t="shared" si="15"/>
         <v>41030</v>
@@ -8170,7 +8172,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <f t="shared" si="15"/>
         <v>41061</v>
@@ -8191,7 +8193,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <f t="shared" si="15"/>
         <v>41091</v>
@@ -8212,7 +8214,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <f t="shared" si="15"/>
         <v>41122</v>
@@ -8233,7 +8235,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <f t="shared" si="15"/>
         <v>41153</v>
@@ -8254,7 +8256,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <f t="shared" si="15"/>
         <v>41183</v>
@@ -8275,7 +8277,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <f t="shared" si="15"/>
         <v>41214</v>
@@ -8296,7 +8298,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <f>EDATE(A244,1)</f>
         <v>41244</v>
@@ -8319,7 +8321,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>102</v>
@@ -8341,7 +8343,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>71</v>
@@ -8363,7 +8365,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20"/>
       <c r="C248" s="13">
@@ -8381,7 +8383,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="48" t="s">
         <v>98</v>
       </c>
@@ -8399,7 +8401,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <v>41275</v>
       </c>
@@ -8419,7 +8421,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <f>EDATE(A250,1)</f>
         <v>41306</v>
@@ -8440,7 +8442,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <f t="shared" ref="A252:A262" si="16">EDATE(A251,1)</f>
         <v>41334</v>
@@ -8461,7 +8463,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <f t="shared" si="16"/>
         <v>41365</v>
@@ -8482,7 +8484,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <f t="shared" si="16"/>
         <v>41395</v>
@@ -8507,7 +8509,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20"/>
       <c r="C255" s="13">
@@ -8525,7 +8527,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <f>EDATE(A254,1)</f>
         <v>41426</v>
@@ -8546,7 +8548,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <f t="shared" si="16"/>
         <v>41456</v>
@@ -8567,7 +8569,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <f t="shared" si="16"/>
         <v>41487</v>
@@ -8588,7 +8590,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <f t="shared" si="16"/>
         <v>41518</v>
@@ -8609,7 +8611,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <f t="shared" si="16"/>
         <v>41548</v>
@@ -8630,7 +8632,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <f t="shared" si="16"/>
         <v>41579</v>
@@ -8651,7 +8653,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <f t="shared" si="16"/>
         <v>41609</v>
@@ -8676,7 +8678,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="48" t="s">
         <v>99</v>
       </c>
@@ -8694,7 +8696,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <v>41640</v>
       </c>
@@ -8714,7 +8716,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <f>EDATE(A264,1)</f>
         <v>41671</v>
@@ -8739,7 +8741,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40"/>
       <c r="B266" s="20"/>
       <c r="C266" s="13">
@@ -8757,7 +8759,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <f>EDATE(A265,1)</f>
         <v>41699</v>
@@ -8778,7 +8780,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <f t="shared" ref="A268:A278" si="17">EDATE(A267,1)</f>
         <v>41730</v>
@@ -8803,7 +8805,7 @@
         <v>45035</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20"/>
       <c r="C269" s="13">
@@ -8821,7 +8823,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <f>EDATE(A268,1)</f>
         <v>41760</v>
@@ -8842,7 +8844,7 @@
       <c r="J270" s="12"/>
       <c r="K270" s="15"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <f t="shared" si="17"/>
         <v>41791</v>
@@ -8863,7 +8865,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <f t="shared" si="17"/>
         <v>41821</v>
@@ -8888,7 +8890,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40"/>
       <c r="B273" s="20"/>
       <c r="C273" s="13">
@@ -8906,7 +8908,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <f>EDATE(A272,1)</f>
         <v>41852</v>
@@ -8927,7 +8929,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <f t="shared" si="17"/>
         <v>41883</v>
@@ -8948,7 +8950,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <f t="shared" si="17"/>
         <v>41913</v>
@@ -8969,7 +8971,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <f t="shared" si="17"/>
         <v>41944</v>
@@ -8990,7 +8992,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <f t="shared" si="17"/>
         <v>41974</v>
@@ -9011,7 +9013,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="48" t="s">
         <v>100</v>
       </c>
@@ -9029,7 +9031,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <v>42005</v>
       </c>
@@ -9049,7 +9051,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <f>EDATE(A280,1)</f>
         <v>42036</v>
@@ -9070,7 +9072,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <f t="shared" ref="A282:A292" si="18">EDATE(A281,1)</f>
         <v>42064</v>
@@ -9091,7 +9093,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <f t="shared" si="18"/>
         <v>42095</v>
@@ -9112,7 +9114,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <f t="shared" si="18"/>
         <v>42125</v>
@@ -9133,7 +9135,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <f t="shared" si="18"/>
         <v>42156</v>
@@ -9154,7 +9156,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <f t="shared" si="18"/>
         <v>42186</v>
@@ -9179,7 +9181,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20"/>
       <c r="C287" s="13">
@@ -9197,7 +9199,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <f>EDATE(A286,1)</f>
         <v>42217</v>
@@ -9218,7 +9220,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <f t="shared" si="18"/>
         <v>42248</v>
@@ -9239,7 +9241,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <f t="shared" si="18"/>
         <v>42278</v>
@@ -9260,7 +9262,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <f t="shared" si="18"/>
         <v>42309</v>
@@ -9281,7 +9283,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <f t="shared" si="18"/>
         <v>42339</v>
@@ -9302,7 +9304,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="48" t="s">
         <v>113</v>
       </c>
@@ -9320,7 +9322,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <v>42370</v>
       </c>
@@ -9340,7 +9342,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <f>EDATE(A294,1)</f>
         <v>42401</v>
@@ -9365,7 +9367,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40"/>
       <c r="B296" s="20"/>
       <c r="C296" s="13">
@@ -9383,7 +9385,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <f>EDATE(A295,1)</f>
         <v>42430</v>
@@ -9404,7 +9406,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <f t="shared" ref="A298:A306" si="19">EDATE(A297,1)</f>
         <v>42461</v>
@@ -9425,7 +9427,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <f t="shared" si="19"/>
         <v>42491</v>
@@ -9446,7 +9448,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <f t="shared" si="19"/>
         <v>42522</v>
@@ -9467,7 +9469,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <f t="shared" si="19"/>
         <v>42552</v>
@@ -9488,7 +9490,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <f t="shared" si="19"/>
         <v>42583</v>
@@ -9509,7 +9511,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <f t="shared" si="19"/>
         <v>42614</v>
@@ -9530,7 +9532,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <f t="shared" si="19"/>
         <v>42644</v>
@@ -9551,7 +9553,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <f>EDATE(A304,1)</f>
         <v>42675</v>
@@ -9572,7 +9574,7 @@
       <c r="J305" s="12"/>
       <c r="K305" s="15"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <f t="shared" si="19"/>
         <v>42705</v>
@@ -9593,7 +9595,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="48" t="s">
         <v>116</v>
       </c>
@@ -9611,7 +9613,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <v>42736</v>
       </c>
@@ -9631,7 +9633,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <f>EDATE(A308,1)</f>
         <v>42767</v>
@@ -9652,7 +9654,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <f t="shared" ref="A310:A321" si="20">EDATE(A309,1)</f>
         <v>42795</v>
@@ -9677,7 +9679,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
         <v>120</v>
@@ -9699,7 +9701,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40"/>
       <c r="B312" s="20"/>
       <c r="C312" s="13">
@@ -9717,7 +9719,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <f>EDATE(A310,1)</f>
         <v>42826</v>
@@ -9738,7 +9740,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <f t="shared" si="20"/>
         <v>42856</v>
@@ -9759,7 +9761,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <f t="shared" si="20"/>
         <v>42887</v>
@@ -9780,7 +9782,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <f t="shared" si="20"/>
         <v>42917</v>
@@ -9801,7 +9803,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <f t="shared" si="20"/>
         <v>42948</v>
@@ -9822,7 +9824,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <f t="shared" si="20"/>
         <v>42979</v>
@@ -9843,7 +9845,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <f t="shared" si="20"/>
         <v>43009</v>
@@ -9864,7 +9866,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <f t="shared" si="20"/>
         <v>43040</v>
@@ -9885,7 +9887,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <f t="shared" si="20"/>
         <v>43070</v>
@@ -9910,7 +9912,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="48" t="s">
         <v>117</v>
       </c>
@@ -9928,7 +9930,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>43101</v>
       </c>
@@ -9948,7 +9950,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <f>EDATE(A323,1)</f>
         <v>43132</v>
@@ -9969,7 +9971,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <f t="shared" ref="A325:A334" si="21">EDATE(A324,1)</f>
         <v>43160</v>
@@ -9990,7 +9992,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <f>EDATE(A325,1)</f>
         <v>43191</v>
@@ -10011,7 +10013,7 @@
       <c r="J326" s="12"/>
       <c r="K326" s="15"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <f t="shared" si="21"/>
         <v>43221</v>
@@ -10032,7 +10034,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <f t="shared" si="21"/>
         <v>43252</v>
@@ -10053,7 +10055,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <f t="shared" si="21"/>
         <v>43282</v>
@@ -10074,7 +10076,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <f t="shared" si="21"/>
         <v>43313</v>
@@ -10095,7 +10097,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <f t="shared" si="21"/>
         <v>43344</v>
@@ -10116,7 +10118,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <f t="shared" si="21"/>
         <v>43374</v>
@@ -10137,7 +10139,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <f t="shared" si="21"/>
         <v>43405</v>
@@ -10158,7 +10160,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <f t="shared" si="21"/>
         <v>43435</v>
@@ -10183,7 +10185,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="48" t="s">
         <v>122</v>
       </c>
@@ -10201,7 +10203,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <v>43466</v>
       </c>
@@ -10221,7 +10223,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <f>EDATE(A336,1)</f>
         <v>43497</v>
@@ -10242,7 +10244,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <f t="shared" ref="A338:A347" si="22">EDATE(A337,1)</f>
         <v>43525</v>
@@ -10263,7 +10265,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <f t="shared" si="22"/>
         <v>43556</v>
@@ -10284,7 +10286,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <f t="shared" si="22"/>
         <v>43586</v>
@@ -10305,7 +10307,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <f t="shared" si="22"/>
         <v>43617</v>
@@ -10326,7 +10328,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <f t="shared" si="22"/>
         <v>43647</v>
@@ -10347,7 +10349,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <f t="shared" si="22"/>
         <v>43678</v>
@@ -10368,7 +10370,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <f t="shared" si="22"/>
         <v>43709</v>
@@ -10389,7 +10391,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <f t="shared" si="22"/>
         <v>43739</v>
@@ -10410,7 +10412,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <f t="shared" si="22"/>
         <v>43770</v>
@@ -10431,7 +10433,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <f t="shared" si="22"/>
         <v>43800</v>
@@ -10456,7 +10458,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="48" t="s">
         <v>123</v>
       </c>
@@ -10474,7 +10476,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <v>43831</v>
       </c>
@@ -10496,7 +10498,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <v>43862</v>
       </c>
@@ -10516,7 +10518,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>43891</v>
       </c>
@@ -10536,7 +10538,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <v>43922</v>
       </c>
@@ -10556,7 +10558,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>43952</v>
       </c>
@@ -10576,7 +10578,7 @@
       <c r="J353" s="12"/>
       <c r="K353" s="15"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>43983</v>
       </c>
@@ -10596,7 +10598,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>44013</v>
       </c>
@@ -10616,7 +10618,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <v>44044</v>
       </c>
@@ -10636,7 +10638,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <v>44075</v>
       </c>
@@ -10656,7 +10658,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>44105</v>
       </c>
@@ -10676,7 +10678,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <v>44136</v>
       </c>
@@ -10698,7 +10700,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>44166</v>
       </c>
@@ -10722,7 +10724,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="48" t="s">
         <v>126</v>
       </c>
@@ -10740,7 +10742,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <v>44197</v>
       </c>
@@ -10760,7 +10762,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <v>44228</v>
       </c>
@@ -10780,7 +10782,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <v>44256</v>
       </c>
@@ -10800,7 +10802,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <v>44287</v>
       </c>
@@ -10820,7 +10822,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>44317</v>
       </c>
@@ -10840,7 +10842,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <v>44348</v>
       </c>
@@ -10860,7 +10862,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>44378</v>
       </c>
@@ -10880,7 +10882,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <v>44409</v>
       </c>
@@ -10900,7 +10902,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <v>44440</v>
       </c>
@@ -10920,7 +10922,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <v>44470</v>
       </c>
@@ -10940,7 +10942,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>44501</v>
       </c>
@@ -10960,7 +10962,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <v>44531</v>
       </c>
@@ -10984,7 +10986,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="48" t="s">
         <v>127</v>
       </c>
@@ -11002,7 +11004,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>44562</v>
       </c>
@@ -11022,7 +11024,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>44593</v>
       </c>
@@ -11042,7 +11044,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <v>44621</v>
       </c>
@@ -11062,7 +11064,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <v>44652</v>
       </c>
@@ -11082,7 +11084,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <v>44682</v>
       </c>
@@ -11102,7 +11104,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>44713</v>
       </c>
@@ -11122,7 +11124,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <v>44743</v>
       </c>
@@ -11142,7 +11144,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>44774</v>
       </c>
@@ -11162,7 +11164,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>44805</v>
       </c>
@@ -11182,7 +11184,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <v>44835</v>
       </c>
@@ -11202,7 +11204,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <v>44866</v>
       </c>
@@ -11222,7 +11224,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <v>44896</v>
       </c>
@@ -11246,7 +11248,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="48" t="s">
         <v>128</v>
       </c>
@@ -11264,7 +11266,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <v>44927</v>
       </c>
@@ -11284,7 +11286,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <v>44958</v>
       </c>
@@ -11304,7 +11306,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <v>44986</v>
       </c>
@@ -11324,7 +11326,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <v>45017</v>
       </c>
@@ -11344,7 +11346,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <v>45047</v>
       </c>
@@ -11364,121 +11366,137 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <v>45078</v>
       </c>
       <c r="B393" s="20"/>
-      <c r="C393" s="13"/>
+      <c r="C393" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D393" s="39"/>
       <c r="E393" s="9"/>
       <c r="F393" s="20"/>
-      <c r="G393" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G393" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H393" s="39"/>
       <c r="I393" s="9"/>
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <v>45108</v>
       </c>
       <c r="B394" s="20"/>
-      <c r="C394" s="13"/>
+      <c r="C394" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D394" s="39"/>
       <c r="E394" s="9"/>
       <c r="F394" s="20"/>
-      <c r="G394" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G394" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H394" s="39"/>
       <c r="I394" s="9"/>
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <v>45139</v>
       </c>
       <c r="B395" s="20"/>
-      <c r="C395" s="13"/>
+      <c r="C395" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D395" s="39"/>
       <c r="E395" s="9"/>
       <c r="F395" s="20"/>
-      <c r="G395" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G395" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H395" s="39"/>
       <c r="I395" s="9"/>
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <v>45170</v>
       </c>
       <c r="B396" s="20"/>
-      <c r="C396" s="13"/>
+      <c r="C396" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D396" s="39"/>
       <c r="E396" s="9"/>
       <c r="F396" s="20"/>
-      <c r="G396" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G396" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H396" s="39"/>
       <c r="I396" s="9"/>
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <v>45200</v>
       </c>
       <c r="B397" s="20"/>
-      <c r="C397" s="13"/>
+      <c r="C397" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D397" s="39"/>
       <c r="E397" s="9"/>
       <c r="F397" s="20"/>
-      <c r="G397" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G397" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H397" s="39"/>
       <c r="I397" s="9"/>
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <v>45231</v>
       </c>
       <c r="B398" s="20"/>
-      <c r="C398" s="13"/>
+      <c r="C398" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D398" s="39"/>
       <c r="E398" s="9"/>
       <c r="F398" s="20"/>
-      <c r="G398" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G398" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H398" s="39"/>
       <c r="I398" s="9"/>
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <v>45261</v>
       </c>
-      <c r="B399" s="20"/>
+      <c r="B399" s="20" t="s">
+        <v>125</v>
+      </c>
       <c r="C399" s="13"/>
-      <c r="D399" s="39"/>
+      <c r="D399" s="39">
+        <v>5</v>
+      </c>
       <c r="E399" s="9"/>
       <c r="F399" s="20"/>
       <c r="G399" s="13" t="str">
@@ -11488,9 +11506,11 @@
       <c r="H399" s="39"/>
       <c r="I399" s="9"/>
       <c r="J399" s="11"/>
-      <c r="K399" s="20"/>
-    </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K399" s="20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <v>45292</v>
       </c>
@@ -11508,7 +11528,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <v>45323</v>
       </c>
@@ -11526,7 +11546,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <v>45352</v>
       </c>
@@ -11544,7 +11564,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <v>45383</v>
       </c>
@@ -11562,7 +11582,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <v>45413</v>
       </c>
@@ -11580,7 +11600,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <v>45444</v>
       </c>
@@ -11598,7 +11618,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <v>45474</v>
       </c>
@@ -11616,7 +11636,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <v>45505</v>
       </c>
@@ -11634,7 +11654,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <v>45536</v>
       </c>
@@ -11652,7 +11672,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <v>45566</v>
       </c>
@@ -11670,7 +11690,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <v>45597</v>
       </c>
@@ -11688,7 +11708,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <v>45627</v>
       </c>
@@ -11706,7 +11726,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <v>45658</v>
       </c>
@@ -11724,7 +11744,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <v>45689</v>
       </c>
@@ -11742,7 +11762,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <v>45717</v>
       </c>
@@ -11760,7 +11780,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
         <v>45748</v>
       </c>
@@ -11778,7 +11798,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <v>45778</v>
       </c>
@@ -11796,7 +11816,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <v>45809</v>
       </c>
@@ -11814,7 +11834,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <v>45839</v>
       </c>
@@ -11832,7 +11852,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <v>45870</v>
       </c>
@@ -11850,7 +11870,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <v>45901</v>
       </c>
@@ -11868,7 +11888,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <v>45931</v>
       </c>
@@ -11886,7 +11906,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <v>45962</v>
       </c>
@@ -11904,7 +11924,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <v>45992</v>
       </c>
@@ -11922,7 +11942,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <v>46023</v>
       </c>
@@ -11940,7 +11960,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <v>46054</v>
       </c>
@@ -11958,7 +11978,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <v>46082</v>
       </c>
@@ -11976,7 +11996,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <v>46113</v>
       </c>
@@ -11994,7 +12014,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <v>46143</v>
       </c>
@@ -12012,7 +12032,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <v>46174</v>
       </c>
@@ -12030,7 +12050,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <v>46204</v>
       </c>
@@ -12048,7 +12068,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <v>46235</v>
       </c>
@@ -12066,7 +12086,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <v>46266</v>
       </c>
@@ -12084,7 +12104,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <v>46296</v>
       </c>
@@ -12102,7 +12122,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>46327</v>
       </c>
@@ -12120,7 +12140,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <v>46357</v>
       </c>
@@ -12138,7 +12158,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <v>46388</v>
       </c>
@@ -12156,7 +12176,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <v>46419</v>
       </c>
@@ -12174,7 +12194,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <v>46447</v>
       </c>
@@ -12192,7 +12212,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <v>46478</v>
       </c>
@@ -12210,7 +12230,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <v>46508</v>
       </c>
@@ -12228,7 +12248,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
         <v>46539</v>
       </c>
@@ -12246,7 +12266,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <v>46569</v>
       </c>
@@ -12264,7 +12284,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <v>46600</v>
       </c>
@@ -12282,7 +12302,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <v>46631</v>
       </c>
@@ -12300,7 +12320,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <v>46661</v>
       </c>
@@ -12318,7 +12338,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <v>46692</v>
       </c>
@@ -12336,7 +12356,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <v>46722</v>
       </c>
@@ -12354,7 +12374,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
         <v>46753</v>
       </c>
@@ -12372,7 +12392,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <v>46784</v>
       </c>
@@ -12390,7 +12410,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <v>46813</v>
       </c>
@@ -12408,7 +12428,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <v>46844</v>
       </c>
@@ -12426,7 +12446,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
         <v>46874</v>
       </c>
@@ -12444,7 +12464,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <v>46905</v>
       </c>
@@ -12462,7 +12482,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <v>46935</v>
       </c>
@@ -12480,7 +12500,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <v>46966</v>
       </c>
@@ -12498,7 +12518,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
         <v>46997</v>
       </c>
@@ -12516,7 +12536,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <v>47027</v>
       </c>
@@ -12534,7 +12554,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <v>47058</v>
       </c>
@@ -12552,7 +12572,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <v>47088</v>
       </c>
@@ -12570,7 +12590,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <v>47119</v>
       </c>
@@ -12588,7 +12608,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
         <v>47150</v>
       </c>
@@ -12606,7 +12626,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
         <v>47178</v>
       </c>
@@ -12624,7 +12644,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <v>47209</v>
       </c>
@@ -12642,7 +12662,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <v>47239</v>
       </c>
@@ -12660,7 +12680,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
         <v>47270</v>
       </c>
@@ -12678,7 +12698,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <v>47300</v>
       </c>
@@ -12696,7 +12716,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <v>47331</v>
       </c>
@@ -12714,7 +12734,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <v>47362</v>
       </c>
@@ -12732,7 +12752,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <v>47392</v>
       </c>
@@ -12750,7 +12770,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <v>47423</v>
       </c>
@@ -12768,7 +12788,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <v>47453</v>
       </c>
@@ -12801,10 +12821,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12827,7 +12847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -12835,21 +12855,21 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -12862,7 +12882,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -12891,7 +12911,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -12919,17 +12939,17 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -12950,7 +12970,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -12977,7 +12997,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -13003,7 +13023,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -13029,7 +13049,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -13055,7 +13075,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -13081,7 +13101,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -13107,7 +13127,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -13133,7 +13153,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -13159,7 +13179,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -13179,7 +13199,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -13199,7 +13219,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -13219,7 +13239,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -13240,7 +13260,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -13261,7 +13281,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -13282,7 +13302,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -13303,7 +13323,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -13324,7 +13344,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -13345,7 +13365,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -13366,7 +13386,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -13387,7 +13407,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -13408,7 +13428,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -13429,7 +13449,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -13450,7 +13470,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -13471,7 +13491,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -13492,7 +13512,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -13513,7 +13533,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -13534,7 +13554,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -13555,7 +13575,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -13576,7 +13596,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -13597,7 +13617,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -13618,7 +13638,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -13639,7 +13659,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -13648,7 +13668,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -13657,7 +13677,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -13666,7 +13686,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -13675,7 +13695,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -13684,7 +13704,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -13693,7 +13713,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -13702,7 +13722,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -13711,7 +13731,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -13720,7 +13740,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -13729,7 +13749,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -13738,7 +13758,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -13747,7 +13767,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -13756,7 +13776,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -13765,7 +13785,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -13774,7 +13794,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -13783,7 +13803,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -13792,7 +13812,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -13801,7 +13821,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -13810,7 +13830,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -13819,7 +13839,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -13828,7 +13848,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -13837,7 +13857,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -13846,7 +13866,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -13855,7 +13875,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -13864,7 +13884,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -13873,7 +13893,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -13882,7 +13902,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -13891,7 +13911,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -13900,7 +13920,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
